--- a/data/Tassie checks.xlsx
+++ b/data/Tassie checks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7DF519-0C5E-4420-8269-E72DC936DE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ED6F7C-4042-4756-A280-11FC69F4737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13665" yWindow="6585" windowWidth="28800" windowHeight="15435" xr2:uid="{E18B092A-E46D-49FE-B415-1528084BB7EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E18B092A-E46D-49FE-B415-1528084BB7EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,10 +376,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,7 +698,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,10 +898,10 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -905,10 +912,10 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -961,10 +968,10 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1185,10 +1192,10 @@
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data/Tassie checks.xlsx
+++ b/data/Tassie checks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ED6F7C-4042-4756-A280-11FC69F4737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639ABAF5-5579-4D10-9962-26A8C6645D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E18B092A-E46D-49FE-B415-1528084BB7EE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
   <si>
     <t>iNaturalist_name</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Leptecophylla oxycedrus</t>
-  </si>
-  <si>
-    <t>assess</t>
   </si>
   <si>
     <t>APC name is Lycopodiella serpentina</t>
@@ -344,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,12 +351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,11 +367,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,7 +688,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D35"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,11 +720,11 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -828,22 +818,22 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -851,27 +841,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -879,55 +869,55 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
@@ -935,13 +925,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -949,55 +939,55 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -1005,27 +995,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -1033,13 +1023,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
@@ -1047,13 +1037,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -1061,13 +1051,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -1075,41 +1065,41 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
         <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -1117,13 +1107,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -1131,13 +1121,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1145,13 +1135,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
         <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
@@ -1159,55 +1149,55 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
@@ -1215,41 +1205,41 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
         <v>83</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>86</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
         <v>89</v>
       </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1257,13 +1247,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -1271,27 +1261,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
         <v>92</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>93</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>94</v>
-      </c>
-      <c r="D41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
         <v>96</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>97</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
